--- a/xlsx/country_comparison/main_radical_redistr_positive.xlsx
+++ b/xlsx/country_comparison/main_radical_redistr_positive.xlsx
@@ -84,7 +84,8 @@
 all countries converge in terms of GDP per capita by the end of the century"</t>
   </si>
   <si>
-    <t xml:space="preserve">Could sign a petition and spread ideas</t>
+    <t xml:space="preserve">Would support a global movement to tackle CC, tax millionaires,
+ and fund LICs (either petition, demonstrate, strike, or donate)</t>
   </si>
   <si>
     <t xml:space="preserve">More likely to vote for party if part of worldwide
@@ -476,7 +477,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.679579005629342</v>
+        <v>0.679897029851402</v>
       </c>
       <c r="C2" t="n">
         <v>0.657193301686884</v>
@@ -506,7 +507,7 @@
         <v>0.679794880829724</v>
       </c>
       <c r="L2" t="n">
-        <v>0.745408968197829</v>
+        <v>0.746966524557697</v>
       </c>
       <c r="M2" t="n">
         <v>0.880240645828153</v>
@@ -520,43 +521,43 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.554258283605262</v>
+        <v>0.554293541623426</v>
       </c>
       <c r="C3" t="n">
         <v>0.626104574696674</v>
       </c>
       <c r="D3" t="n">
-        <v>0.624391933320713</v>
+        <v>0.624406596978198</v>
       </c>
       <c r="E3" t="n">
-        <v>0.569361201319161</v>
+        <v>0.56936801545172</v>
       </c>
       <c r="F3" t="n">
-        <v>0.758885638793477</v>
+        <v>0.758894180444338</v>
       </c>
       <c r="G3" t="n">
-        <v>0.522608728926402</v>
+        <v>0.522621282278954</v>
       </c>
       <c r="H3" t="n">
-        <v>0.689643842296669</v>
+        <v>0.689643171565221</v>
       </c>
       <c r="I3" t="n">
-        <v>0.593498631932549</v>
+        <v>0.593501984750936</v>
       </c>
       <c r="J3" t="n">
-        <v>0.609943712759195</v>
+        <v>0.609951025764564</v>
       </c>
       <c r="K3" t="n">
-        <v>0.543385352183665</v>
+        <v>0.543396785937818</v>
       </c>
       <c r="L3" t="n">
-        <v>0.49005949459479</v>
+        <v>0.489993760639046</v>
       </c>
       <c r="M3" t="n">
-        <v>0.845259319958112</v>
+        <v>0.845259245175165</v>
       </c>
       <c r="N3" t="n">
-        <v>0.476499434449555</v>
+        <v>0.47650482489471</v>
       </c>
     </row>
     <row r="4">
@@ -564,43 +565,43 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.65630823316318</v>
+        <v>0.656628133636508</v>
       </c>
       <c r="C4" t="n">
         <v>0.708240523956614</v>
       </c>
       <c r="D4" t="n">
-        <v>0.717222086277112</v>
+        <v>0.717227863366553</v>
       </c>
       <c r="E4" t="n">
-        <v>0.698625211841729</v>
+        <v>0.698625155477087</v>
       </c>
       <c r="F4" t="n">
-        <v>0.817306540001972</v>
+        <v>0.817308665522304</v>
       </c>
       <c r="G4" t="n">
-        <v>0.613031979414896</v>
+        <v>0.61303332714341</v>
       </c>
       <c r="H4" t="n">
-        <v>0.753369785931507</v>
+        <v>0.753364851743349</v>
       </c>
       <c r="I4" t="n">
-        <v>0.643427853208695</v>
+        <v>0.643426847981608</v>
       </c>
       <c r="J4" t="n">
-        <v>0.679196554043359</v>
+        <v>0.679192380665363</v>
       </c>
       <c r="K4" t="n">
-        <v>0.666663022553969</v>
+        <v>0.66667359173551</v>
       </c>
       <c r="L4" t="n">
-        <v>0.582748223296627</v>
+        <v>0.585472817494355</v>
       </c>
       <c r="M4" t="n">
-        <v>0.879771487915199</v>
+        <v>0.879769518493936</v>
       </c>
       <c r="N4" t="n">
-        <v>0.597637140852774</v>
+        <v>0.597637599145597</v>
       </c>
     </row>
     <row r="5">
@@ -608,43 +609,43 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.705058079944556</v>
+        <v>0.705395815921693</v>
       </c>
       <c r="C5" t="n">
         <v>0.735962846479202</v>
       </c>
       <c r="D5" t="n">
-        <v>0.754456708487008</v>
+        <v>0.754469726077209</v>
       </c>
       <c r="E5" t="n">
-        <v>0.734858944673408</v>
+        <v>0.734861561796947</v>
       </c>
       <c r="F5" t="n">
-        <v>0.824931062156256</v>
+        <v>0.824929658007356</v>
       </c>
       <c r="G5" t="n">
-        <v>0.664060806881709</v>
+        <v>0.664065060357909</v>
       </c>
       <c r="H5" t="n">
-        <v>0.732436999509338</v>
+        <v>0.732427992673078</v>
       </c>
       <c r="I5" t="n">
-        <v>0.699913433755318</v>
+        <v>0.699918809526886</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6202703367477</v>
+        <v>0.620270811476828</v>
       </c>
       <c r="K5" t="n">
-        <v>0.662708486983846</v>
+        <v>0.662710061009957</v>
       </c>
       <c r="L5" t="n">
-        <v>0.739883152268789</v>
+        <v>0.742517293535704</v>
       </c>
       <c r="M5" t="n">
-        <v>0.832449031476121</v>
+        <v>0.832449064105216</v>
       </c>
       <c r="N5" t="n">
-        <v>0.655650604687008</v>
+        <v>0.655647883224673</v>
       </c>
     </row>
     <row r="6">
@@ -652,10 +653,10 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.556885386017966</v>
+        <v>0.557218101837123</v>
       </c>
       <c r="C6" t="n">
-        <v>0.612606004275779</v>
+        <v>0.612606004275778</v>
       </c>
       <c r="D6" t="n">
         <v>0.616724928283738</v>
@@ -682,7 +683,7 @@
         <v>0.438153093874799</v>
       </c>
       <c r="L6" t="n">
-        <v>0.601307287628408</v>
+        <v>0.604221211671973</v>
       </c>
       <c r="M6" t="n">
         <v>0.677827112481047</v>
@@ -696,7 +697,7 @@
         <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0.503488847512142</v>
+        <v>0.504011711533617</v>
       </c>
       <c r="C7" t="n">
         <v>0.55532380171867</v>
@@ -726,7 +727,7 @@
         <v>0.351009115929929</v>
       </c>
       <c r="L7" t="n">
-        <v>0.606011155724885</v>
+        <v>0.609596257019646</v>
       </c>
       <c r="M7" t="n">
         <v>0.671355992475847</v>
@@ -740,7 +741,7 @@
         <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>0.681044372483487</v>
+        <v>0.680974666901203</v>
       </c>
       <c r="C8" t="n">
         <v>0.701539116816613</v>
@@ -770,7 +771,7 @@
         <v>0.757961572913613</v>
       </c>
       <c r="L8" t="n">
-        <v>0.688032418294747</v>
+        <v>0.687742090810018</v>
       </c>
       <c r="M8" t="n">
         <v>0.713280127381035</v>
@@ -784,7 +785,7 @@
         <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>0.610664738740297</v>
+        <v>0.610500687790388</v>
       </c>
       <c r="C9" t="n">
         <v>0.667387097439935</v>
@@ -814,7 +815,7 @@
         <v>0.571037878973246</v>
       </c>
       <c r="L9" t="n">
-        <v>0.785034538455345</v>
+        <v>0.783687718511218</v>
       </c>
       <c r="M9" t="n">
         <v>0.756844881931732</v>
@@ -828,41 +829,41 @@
         <v>22</v>
       </c>
       <c r="B10" t="n">
-        <v>0.517681293588919</v>
+        <v>0.675505142809517</v>
       </c>
       <c r="C10" t="n">
-        <v>0.54627578656303</v>
+        <v>0.719216740354837</v>
       </c>
       <c r="D10" t="n">
-        <v>0.530038042676022</v>
+        <v>0.699222514786681</v>
       </c>
       <c r="E10" t="n">
-        <v>0.525216461992543</v>
+        <v>0.688082663981164</v>
       </c>
       <c r="F10" t="n">
-        <v>0.574663014312723</v>
+        <v>0.819338712934373</v>
       </c>
       <c r="G10" t="n">
-        <v>0.541227742327436</v>
+        <v>0.708420268414952</v>
       </c>
       <c r="H10" t="n">
-        <v>0.57000212855437</v>
+        <v>0.74352822863702</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5501691998004</v>
+        <v>0.68138828161491</v>
       </c>
       <c r="J10" t="n">
-        <v>0.48406365355452</v>
+        <v>0.639531813440066</v>
       </c>
       <c r="K10" t="n">
-        <v>0.510803804042151</v>
+        <v>0.55775498195175</v>
       </c>
       <c r="L10"/>
       <c r="M10" t="n">
-        <v>0.404576421408372</v>
+        <v>0.727098526374066</v>
       </c>
       <c r="N10" t="n">
-        <v>0.497966802692056</v>
+        <v>0.666567623760654</v>
       </c>
     </row>
     <row r="11">
@@ -944,7 +945,7 @@
         <v>25</v>
       </c>
       <c r="B13" t="n">
-        <v>0.411487229771989</v>
+        <v>0.41179092322154</v>
       </c>
       <c r="C13" t="n">
         <v>0.439007996245569</v>
@@ -974,7 +975,7 @@
         <v>0.319277017627355</v>
       </c>
       <c r="L13" t="n">
-        <v>0.394354933252772</v>
+        <v>0.396547754749935</v>
       </c>
       <c r="M13" t="n">
         <v>0.662536527281334</v>

--- a/xlsx/country_comparison/main_radical_redistr_positive.xlsx
+++ b/xlsx/country_comparison/main_radical_redistr_positive.xlsx
@@ -80,8 +80,8 @@
     <t xml:space="preserve">Prefers sustainable future</t>
   </si>
   <si>
-    <t xml:space="preserve">"Governments should actively cooperate to have
-all countries converge in terms of GDP per capita by the end of the century"</t>
+    <t xml:space="preserve">"Governments should actively cooperate to have all countries
+converge in terms of GDP per capita by the end of the century"</t>
   </si>
   <si>
     <t xml:space="preserve">Would support a global movement to tackle CC, tax millionaires,

--- a/xlsx/country_comparison/main_radical_redistr_positive.xlsx
+++ b/xlsx/country_comparison/main_radical_redistr_positive.xlsx
@@ -477,7 +477,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.679897029851402</v>
+        <v>0.678679804978435</v>
       </c>
       <c r="C2" t="n">
         <v>0.657193301686884</v>
@@ -504,16 +504,16 @@
         <v>0.577523185799727</v>
       </c>
       <c r="K2" t="n">
-        <v>0.679794880829724</v>
+        <v>0.67987520077397</v>
       </c>
       <c r="L2" t="n">
-        <v>0.746966524557697</v>
+        <v>0.74084626345024</v>
       </c>
       <c r="M2" t="n">
         <v>0.880240645828153</v>
       </c>
       <c r="N2" t="n">
-        <v>0.640316340570691</v>
+        <v>0.640735542026883</v>
       </c>
     </row>
     <row r="3">
@@ -521,43 +521,43 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.554293541623426</v>
+        <v>0.553718303775116</v>
       </c>
       <c r="C3" t="n">
         <v>0.626104574696674</v>
       </c>
       <c r="D3" t="n">
-        <v>0.624406596978198</v>
+        <v>0.62468719027894</v>
       </c>
       <c r="E3" t="n">
-        <v>0.56936801545172</v>
+        <v>0.569498424923018</v>
       </c>
       <c r="F3" t="n">
-        <v>0.758894180444338</v>
+        <v>0.759057679811368</v>
       </c>
       <c r="G3" t="n">
-        <v>0.522621282278954</v>
+        <v>0.522861429260386</v>
       </c>
       <c r="H3" t="n">
-        <v>0.689643171565221</v>
+        <v>0.68963033430472</v>
       </c>
       <c r="I3" t="n">
-        <v>0.593501984750936</v>
+        <v>0.593566149815293</v>
       </c>
       <c r="J3" t="n">
-        <v>0.609951025764564</v>
+        <v>0.610091501584142</v>
       </c>
       <c r="K3" t="n">
-        <v>0.543396785937818</v>
+        <v>0.543669469571705</v>
       </c>
       <c r="L3" t="n">
-        <v>0.489993760639046</v>
+        <v>0.489608113420232</v>
       </c>
       <c r="M3" t="n">
-        <v>0.845259245175165</v>
+        <v>0.845257807486015</v>
       </c>
       <c r="N3" t="n">
-        <v>0.47650482489471</v>
+        <v>0.476878037078152</v>
       </c>
     </row>
     <row r="4">
@@ -565,43 +565,43 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.656628133636508</v>
+        <v>0.655979457579115</v>
       </c>
       <c r="C4" t="n">
         <v>0.708240523956614</v>
       </c>
       <c r="D4" t="n">
-        <v>0.717227863366553</v>
+        <v>0.717338409633504</v>
       </c>
       <c r="E4" t="n">
-        <v>0.698625155477087</v>
+        <v>0.698624076765589</v>
       </c>
       <c r="F4" t="n">
-        <v>0.817308665522304</v>
+        <v>0.817349351009749</v>
       </c>
       <c r="G4" t="n">
-        <v>0.61303332714341</v>
+        <v>0.613059109334518</v>
       </c>
       <c r="H4" t="n">
-        <v>0.753364851743349</v>
+        <v>0.753270415350046</v>
       </c>
       <c r="I4" t="n">
-        <v>0.643426847981608</v>
+        <v>0.643407610297565</v>
       </c>
       <c r="J4" t="n">
-        <v>0.679192380665363</v>
+        <v>0.67911221407656</v>
       </c>
       <c r="K4" t="n">
-        <v>0.66667359173551</v>
+        <v>0.666980642669643</v>
       </c>
       <c r="L4" t="n">
-        <v>0.585472817494355</v>
+        <v>0.586347664911907</v>
       </c>
       <c r="M4" t="n">
-        <v>0.879769518493936</v>
+        <v>0.879731656712811</v>
       </c>
       <c r="N4" t="n">
-        <v>0.597637599145597</v>
+        <v>0.597918611397897</v>
       </c>
     </row>
     <row r="5">
@@ -609,43 +609,43 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.705395815921693</v>
+        <v>0.704317439138463</v>
       </c>
       <c r="C5" t="n">
         <v>0.735962846479202</v>
       </c>
       <c r="D5" t="n">
-        <v>0.754469726077209</v>
+        <v>0.754718821407338</v>
       </c>
       <c r="E5" t="n">
-        <v>0.734861561796947</v>
+        <v>0.734911648538593</v>
       </c>
       <c r="F5" t="n">
-        <v>0.824929658007356</v>
+        <v>0.824902780596881</v>
       </c>
       <c r="G5" t="n">
-        <v>0.664065060357909</v>
+        <v>0.664146429814073</v>
       </c>
       <c r="H5" t="n">
-        <v>0.732427992673078</v>
+        <v>0.732255609070291</v>
       </c>
       <c r="I5" t="n">
-        <v>0.699918809526886</v>
+        <v>0.700021689160926</v>
       </c>
       <c r="J5" t="n">
-        <v>0.620270811476828</v>
+        <v>0.620279930568098</v>
       </c>
       <c r="K5" t="n">
-        <v>0.662710061009957</v>
+        <v>0.662799981897829</v>
       </c>
       <c r="L5" t="n">
-        <v>0.742517293535704</v>
+        <v>0.73581857169661</v>
       </c>
       <c r="M5" t="n">
-        <v>0.832449064105216</v>
+        <v>0.83244969139388</v>
       </c>
       <c r="N5" t="n">
-        <v>0.655647883224673</v>
+        <v>0.655883869940124</v>
       </c>
     </row>
     <row r="6">
@@ -653,10 +653,10 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.557218101837123</v>
+        <v>0.556007222541788</v>
       </c>
       <c r="C6" t="n">
-        <v>0.612606004275778</v>
+        <v>0.612606004275779</v>
       </c>
       <c r="D6" t="n">
         <v>0.616724928283738</v>
@@ -680,16 +680,16 @@
         <v>0.529872342725065</v>
       </c>
       <c r="K6" t="n">
-        <v>0.438153093874799</v>
+        <v>0.438282499020205</v>
       </c>
       <c r="L6" t="n">
-        <v>0.604221211671973</v>
+        <v>0.595756191953926</v>
       </c>
       <c r="M6" t="n">
         <v>0.677827112481047</v>
       </c>
       <c r="N6" t="n">
-        <v>0.508222265196169</v>
+        <v>0.508231644030169</v>
       </c>
     </row>
     <row r="7">
@@ -697,7 +697,7 @@
         <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0.504011711533617</v>
+        <v>0.50312291438834</v>
       </c>
       <c r="C7" t="n">
         <v>0.55532380171867</v>
@@ -724,16 +724,16 @@
         <v>0.360111742646164</v>
       </c>
       <c r="K7" t="n">
-        <v>0.351009115929929</v>
+        <v>0.351050882580874</v>
       </c>
       <c r="L7" t="n">
-        <v>0.609596257019646</v>
+        <v>0.604399737467109</v>
       </c>
       <c r="M7" t="n">
         <v>0.671355992475847</v>
       </c>
       <c r="N7" t="n">
-        <v>0.447291263751444</v>
+        <v>0.447300643788012</v>
       </c>
     </row>
     <row r="8">
@@ -741,7 +741,7 @@
         <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>0.680974666901203</v>
+        <v>0.680881448179833</v>
       </c>
       <c r="C8" t="n">
         <v>0.701539116816613</v>
@@ -768,16 +768,16 @@
         <v>0.665468662233116</v>
       </c>
       <c r="K8" t="n">
-        <v>0.757961572913613</v>
+        <v>0.758076861129753</v>
       </c>
       <c r="L8" t="n">
-        <v>0.687742090810018</v>
+        <v>0.688615273248795</v>
       </c>
       <c r="M8" t="n">
         <v>0.713280127381035</v>
       </c>
       <c r="N8" t="n">
-        <v>0.61682403920896</v>
+        <v>0.616918649447641</v>
       </c>
     </row>
     <row r="9">
@@ -785,7 +785,7 @@
         <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>0.610500687790388</v>
+        <v>0.609601586795904</v>
       </c>
       <c r="C9" t="n">
         <v>0.667387097439935</v>
@@ -812,16 +812,16 @@
         <v>0.566109070039295</v>
       </c>
       <c r="K9" t="n">
-        <v>0.571037878973246</v>
+        <v>0.571096670838126</v>
       </c>
       <c r="L9" t="n">
-        <v>0.783687718511218</v>
+        <v>0.778963825426238</v>
       </c>
       <c r="M9" t="n">
         <v>0.756844881931732</v>
       </c>
       <c r="N9" t="n">
-        <v>0.472973814509855</v>
+        <v>0.472900191628792</v>
       </c>
     </row>
     <row r="10">
@@ -829,7 +829,7 @@
         <v>22</v>
       </c>
       <c r="B10" t="n">
-        <v>0.675505142809517</v>
+        <v>0.675595447215337</v>
       </c>
       <c r="C10" t="n">
         <v>0.719216740354837</v>
@@ -856,14 +856,14 @@
         <v>0.639531813440066</v>
       </c>
       <c r="K10" t="n">
-        <v>0.55775498195175</v>
+        <v>0.557841849059486</v>
       </c>
       <c r="L10"/>
       <c r="M10" t="n">
         <v>0.727098526374066</v>
       </c>
       <c r="N10" t="n">
-        <v>0.666567623760654</v>
+        <v>0.666651932459956</v>
       </c>
     </row>
     <row r="11">
@@ -871,7 +871,7 @@
         <v>23</v>
       </c>
       <c r="B11" t="n">
-        <v>0.364700740506257</v>
+        <v>0.364717906507653</v>
       </c>
       <c r="C11" t="n">
         <v>0.40721776360235</v>
@@ -898,12 +898,12 @@
         <v>0.314122252360097</v>
       </c>
       <c r="K11" t="n">
-        <v>0.221514789130911</v>
+        <v>0.22156020948145</v>
       </c>
       <c r="L11"/>
       <c r="M11"/>
       <c r="N11" t="n">
-        <v>0.372185762920701</v>
+        <v>0.372217577193357</v>
       </c>
     </row>
     <row r="12">
@@ -911,7 +911,7 @@
         <v>24</v>
       </c>
       <c r="B12" t="n">
-        <v>0.347856888878235</v>
+        <v>0.347853243460036</v>
       </c>
       <c r="C12" t="n">
         <v>0.389632627264691</v>
@@ -937,7 +937,7 @@
       <c r="L12"/>
       <c r="M12"/>
       <c r="N12" t="n">
-        <v>0.306358846199483</v>
+        <v>0.306445646731996</v>
       </c>
     </row>
     <row r="13">
@@ -945,7 +945,7 @@
         <v>25</v>
       </c>
       <c r="B13" t="n">
-        <v>0.41179092322154</v>
+        <v>0.410626908494325</v>
       </c>
       <c r="C13" t="n">
         <v>0.439007996245569</v>
@@ -972,16 +972,16 @@
         <v>0.393105560133332</v>
       </c>
       <c r="K13" t="n">
-        <v>0.319277017627355</v>
+        <v>0.319383802321488</v>
       </c>
       <c r="L13" t="n">
-        <v>0.396547754749935</v>
+        <v>0.389233362357354</v>
       </c>
       <c r="M13" t="n">
         <v>0.662536527281334</v>
       </c>
       <c r="N13" t="n">
-        <v>0.400776129109669</v>
+        <v>0.40055514051731</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/main_radical_redistr_positive.xlsx
+++ b/xlsx/country_comparison/main_radical_redistr_positive.xlsx
@@ -477,7 +477,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.678679804978435</v>
+        <v>0.678255122017956</v>
       </c>
       <c r="C2" t="n">
         <v>0.657193301686884</v>
@@ -507,7 +507,7 @@
         <v>0.67987520077397</v>
       </c>
       <c r="L2" t="n">
-        <v>0.74084626345024</v>
+        <v>0.739047667329172</v>
       </c>
       <c r="M2" t="n">
         <v>0.880240645828153</v>
@@ -521,43 +521,43 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.553718303775116</v>
+        <v>0.553746767090015</v>
       </c>
       <c r="C3" t="n">
         <v>0.626104574696674</v>
       </c>
       <c r="D3" t="n">
-        <v>0.62468719027894</v>
+        <v>0.622273519140294</v>
       </c>
       <c r="E3" t="n">
-        <v>0.569498424923018</v>
+        <v>0.567933697165467</v>
       </c>
       <c r="F3" t="n">
-        <v>0.759057679811368</v>
+        <v>0.757304011850663</v>
       </c>
       <c r="G3" t="n">
-        <v>0.522861429260386</v>
+        <v>0.53058303552895</v>
       </c>
       <c r="H3" t="n">
-        <v>0.68963033430472</v>
+        <v>0.689059343539561</v>
       </c>
       <c r="I3" t="n">
-        <v>0.593566149815293</v>
+        <v>0.593195783835747</v>
       </c>
       <c r="J3" t="n">
-        <v>0.610091501584142</v>
+        <v>0.623575700142155</v>
       </c>
       <c r="K3" t="n">
-        <v>0.543669469571705</v>
+        <v>0.548090076208069</v>
       </c>
       <c r="L3" t="n">
-        <v>0.489608113420232</v>
+        <v>0.490485989036895</v>
       </c>
       <c r="M3" t="n">
-        <v>0.845257807486015</v>
+        <v>0.846428606188793</v>
       </c>
       <c r="N3" t="n">
-        <v>0.476878037078152</v>
+        <v>0.474912333237318</v>
       </c>
     </row>
     <row r="4">
@@ -565,43 +565,43 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.655979457579115</v>
+        <v>0.655683473250087</v>
       </c>
       <c r="C4" t="n">
         <v>0.708240523956614</v>
       </c>
       <c r="D4" t="n">
-        <v>0.717338409633504</v>
+        <v>0.71372494864982</v>
       </c>
       <c r="E4" t="n">
-        <v>0.698624076765589</v>
+        <v>0.697891137958019</v>
       </c>
       <c r="F4" t="n">
-        <v>0.817349351009749</v>
+        <v>0.817299125151247</v>
       </c>
       <c r="G4" t="n">
-        <v>0.613059109334518</v>
+        <v>0.616382832182591</v>
       </c>
       <c r="H4" t="n">
-        <v>0.753270415350046</v>
+        <v>0.75232431286644</v>
       </c>
       <c r="I4" t="n">
-        <v>0.643407610297565</v>
+        <v>0.642175703476063</v>
       </c>
       <c r="J4" t="n">
-        <v>0.67911221407656</v>
+        <v>0.666902061704343</v>
       </c>
       <c r="K4" t="n">
-        <v>0.666980642669643</v>
+        <v>0.671354688968226</v>
       </c>
       <c r="L4" t="n">
-        <v>0.586347664911907</v>
+        <v>0.589001322482966</v>
       </c>
       <c r="M4" t="n">
-        <v>0.879731656712811</v>
+        <v>0.87796797988428</v>
       </c>
       <c r="N4" t="n">
-        <v>0.597918611397897</v>
+        <v>0.598606580038173</v>
       </c>
     </row>
     <row r="5">
@@ -609,43 +609,43 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.704317439138463</v>
+        <v>0.704079856692946</v>
       </c>
       <c r="C5" t="n">
         <v>0.735962846479202</v>
       </c>
       <c r="D5" t="n">
-        <v>0.754718821407338</v>
+        <v>0.751528818703853</v>
       </c>
       <c r="E5" t="n">
-        <v>0.734911648538593</v>
+        <v>0.735182627547195</v>
       </c>
       <c r="F5" t="n">
-        <v>0.824902780596881</v>
+        <v>0.82305515135296</v>
       </c>
       <c r="G5" t="n">
-        <v>0.664146429814073</v>
+        <v>0.669776585285023</v>
       </c>
       <c r="H5" t="n">
-        <v>0.732255609070291</v>
+        <v>0.730260714811827</v>
       </c>
       <c r="I5" t="n">
-        <v>0.700021689160926</v>
+        <v>0.698974698762325</v>
       </c>
       <c r="J5" t="n">
-        <v>0.620279930568098</v>
+        <v>0.623655467255751</v>
       </c>
       <c r="K5" t="n">
-        <v>0.662799981897829</v>
+        <v>0.663725304974921</v>
       </c>
       <c r="L5" t="n">
-        <v>0.73581857169661</v>
+        <v>0.737260039233821</v>
       </c>
       <c r="M5" t="n">
-        <v>0.83244969139388</v>
+        <v>0.830395038048113</v>
       </c>
       <c r="N5" t="n">
-        <v>0.655883869940124</v>
+        <v>0.658482304496079</v>
       </c>
     </row>
     <row r="6">
@@ -653,10 +653,10 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.556007222541788</v>
+        <v>0.556565037682828</v>
       </c>
       <c r="C6" t="n">
-        <v>0.612606004275779</v>
+        <v>0.612606004275778</v>
       </c>
       <c r="D6" t="n">
         <v>0.616724928283738</v>
@@ -683,7 +683,7 @@
         <v>0.438282499020205</v>
       </c>
       <c r="L6" t="n">
-        <v>0.595756191953926</v>
+        <v>0.599020579536134</v>
       </c>
       <c r="M6" t="n">
         <v>0.677827112481047</v>
@@ -697,7 +697,7 @@
         <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0.50312291438834</v>
+        <v>0.503247309719211</v>
       </c>
       <c r="C7" t="n">
         <v>0.55532380171867</v>
@@ -727,7 +727,7 @@
         <v>0.351050882580874</v>
       </c>
       <c r="L7" t="n">
-        <v>0.604399737467109</v>
+        <v>0.605713809935328</v>
       </c>
       <c r="M7" t="n">
         <v>0.671355992475847</v>
@@ -741,43 +741,43 @@
         <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>0.680881448179833</v>
+        <v>0.680815013747804</v>
       </c>
       <c r="C8" t="n">
         <v>0.701539116816613</v>
       </c>
       <c r="D8" t="n">
-        <v>0.719673932778947</v>
+        <v>0.721220700610068</v>
       </c>
       <c r="E8" t="n">
-        <v>0.704645953003574</v>
+        <v>0.703415187125182</v>
       </c>
       <c r="F8" t="n">
-        <v>0.760434225154626</v>
+        <v>0.759706650286704</v>
       </c>
       <c r="G8" t="n">
-        <v>0.572739428737827</v>
+        <v>0.575101001313061</v>
       </c>
       <c r="H8" t="n">
-        <v>0.73608837047601</v>
+        <v>0.731116681894394</v>
       </c>
       <c r="I8" t="n">
-        <v>0.679200342355269</v>
+        <v>0.68337742404715</v>
       </c>
       <c r="J8" t="n">
-        <v>0.665468662233116</v>
+        <v>0.659704988708263</v>
       </c>
       <c r="K8" t="n">
-        <v>0.758076861129753</v>
+        <v>0.759539408850822</v>
       </c>
       <c r="L8" t="n">
-        <v>0.688615273248795</v>
+        <v>0.689906588508866</v>
       </c>
       <c r="M8" t="n">
-        <v>0.713280127381035</v>
+        <v>0.721853509181885</v>
       </c>
       <c r="N8" t="n">
-        <v>0.616918649447641</v>
+        <v>0.618731104894089</v>
       </c>
     </row>
     <row r="9">
@@ -785,43 +785,43 @@
         <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>0.609601586795904</v>
+        <v>0.704960018034767</v>
       </c>
       <c r="C9" t="n">
-        <v>0.667387097439935</v>
+        <v>0.780310385878786</v>
       </c>
       <c r="D9" t="n">
-        <v>0.608837961112165</v>
+        <v>0.767261516731427</v>
       </c>
       <c r="E9" t="n">
-        <v>0.64586557994442</v>
+        <v>0.757541746745335</v>
       </c>
       <c r="F9" t="n">
-        <v>0.780212171052138</v>
+        <v>0.874984008964506</v>
       </c>
       <c r="G9" t="n">
-        <v>0.766346455024569</v>
+        <v>0.847206298409435</v>
       </c>
       <c r="H9" t="n">
-        <v>0.728439095410156</v>
+        <v>0.842339547896952</v>
       </c>
       <c r="I9" t="n">
-        <v>0.555251737340332</v>
+        <v>0.65799487387268</v>
       </c>
       <c r="J9" t="n">
-        <v>0.566109070039295</v>
+        <v>0.656332785129309</v>
       </c>
       <c r="K9" t="n">
-        <v>0.571096670838126</v>
+        <v>0.703874631903231</v>
       </c>
       <c r="L9" t="n">
-        <v>0.778963825426238</v>
+        <v>0.777883926828007</v>
       </c>
       <c r="M9" t="n">
-        <v>0.756844881931732</v>
+        <v>0.92816201896394</v>
       </c>
       <c r="N9" t="n">
-        <v>0.472900191628792</v>
+        <v>0.562406199574745</v>
       </c>
     </row>
     <row r="10">
@@ -835,35 +835,35 @@
         <v>0.719216740354837</v>
       </c>
       <c r="D10" t="n">
-        <v>0.699222514786681</v>
+        <v>0.703425024778734</v>
       </c>
       <c r="E10" t="n">
-        <v>0.688082663981164</v>
+        <v>0.690418272415403</v>
       </c>
       <c r="F10" t="n">
-        <v>0.819338712934373</v>
+        <v>0.817088824971887</v>
       </c>
       <c r="G10" t="n">
-        <v>0.708420268414952</v>
+        <v>0.707832398863728</v>
       </c>
       <c r="H10" t="n">
-        <v>0.74352822863702</v>
+        <v>0.743080145118413</v>
       </c>
       <c r="I10" t="n">
-        <v>0.68138828161491</v>
+        <v>0.682786565268408</v>
       </c>
       <c r="J10" t="n">
-        <v>0.639531813440066</v>
+        <v>0.629978960602202</v>
       </c>
       <c r="K10" t="n">
-        <v>0.557841849059486</v>
+        <v>0.559364498889858</v>
       </c>
       <c r="L10"/>
       <c r="M10" t="n">
-        <v>0.727098526374066</v>
+        <v>0.729122438104651</v>
       </c>
       <c r="N10" t="n">
-        <v>0.666651932459956</v>
+        <v>0.667115559981111</v>
       </c>
     </row>
     <row r="11">
@@ -877,33 +877,33 @@
         <v>0.40721776360235</v>
       </c>
       <c r="D11" t="n">
-        <v>0.428789858236926</v>
+        <v>0.433925894981486</v>
       </c>
       <c r="E11" t="n">
-        <v>0.382760045850686</v>
+        <v>0.380034556242257</v>
       </c>
       <c r="F11" t="n">
-        <v>0.49409402735291</v>
+        <v>0.493153717901538</v>
       </c>
       <c r="G11" t="n">
-        <v>0.297020517023446</v>
+        <v>0.294240462496433</v>
       </c>
       <c r="H11" t="n">
-        <v>0.434344229636586</v>
+        <v>0.435945067636782</v>
       </c>
       <c r="I11" t="n">
-        <v>0.394744985134441</v>
+        <v>0.393859939620314</v>
       </c>
       <c r="J11" t="n">
-        <v>0.314122252360097</v>
+        <v>0.309382480278528</v>
       </c>
       <c r="K11" t="n">
-        <v>0.22156020948145</v>
+        <v>0.221879636941058</v>
       </c>
       <c r="L11"/>
       <c r="M11"/>
       <c r="N11" t="n">
-        <v>0.372217577193357</v>
+        <v>0.372714769461306</v>
       </c>
     </row>
     <row r="12">
@@ -917,27 +917,27 @@
         <v>0.389632627264691</v>
       </c>
       <c r="D12" t="n">
-        <v>0.330491389745475</v>
+        <v>0.330319367513297</v>
       </c>
       <c r="E12" t="n">
-        <v>0.335223833737993</v>
+        <v>0.336287925808747</v>
       </c>
       <c r="F12" t="n">
-        <v>0.55884551964724</v>
+        <v>0.557635114819894</v>
       </c>
       <c r="G12"/>
       <c r="H12" t="n">
-        <v>0.402288413192778</v>
+        <v>0.403966853457814</v>
       </c>
       <c r="I12" t="n">
-        <v>0.353117864669717</v>
+        <v>0.352147255041012</v>
       </c>
       <c r="J12"/>
       <c r="K12"/>
       <c r="L12"/>
       <c r="M12"/>
       <c r="N12" t="n">
-        <v>0.306445646731996</v>
+        <v>0.306378388289677</v>
       </c>
     </row>
     <row r="13">
@@ -945,43 +945,43 @@
         <v>25</v>
       </c>
       <c r="B13" t="n">
-        <v>0.410626908494325</v>
+        <v>0.410629863862209</v>
       </c>
       <c r="C13" t="n">
         <v>0.439007996245569</v>
       </c>
       <c r="D13" t="n">
-        <v>0.324278224348557</v>
+        <v>0.323193155043108</v>
       </c>
       <c r="E13" t="n">
-        <v>0.441488389669955</v>
+        <v>0.444463951462934</v>
       </c>
       <c r="F13" t="n">
-        <v>0.518375799884677</v>
+        <v>0.518235877111197</v>
       </c>
       <c r="G13" t="n">
-        <v>0.40468182659417</v>
+        <v>0.41082014424506</v>
       </c>
       <c r="H13" t="n">
-        <v>0.506211274976579</v>
+        <v>0.500549487362927</v>
       </c>
       <c r="I13" t="n">
-        <v>0.451738941455142</v>
+        <v>0.453356423772496</v>
       </c>
       <c r="J13" t="n">
-        <v>0.393105560133332</v>
+        <v>0.387974052023334</v>
       </c>
       <c r="K13" t="n">
-        <v>0.319383802321488</v>
+        <v>0.32098402394466</v>
       </c>
       <c r="L13" t="n">
-        <v>0.389233362357354</v>
+        <v>0.389828757171604</v>
       </c>
       <c r="M13" t="n">
-        <v>0.662536527281334</v>
+        <v>0.665815836537034</v>
       </c>
       <c r="N13" t="n">
-        <v>0.40055514051731</v>
+        <v>0.400110573948723</v>
       </c>
     </row>
   </sheetData>
